--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7890" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,74 @@
   </si>
   <si>
     <t>二分查找，防止整型溢出将平方改为除法，0特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707.设计链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203.移除链表元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206.反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置虚拟头节点，注意索引和删除进行越界判断的时候，是index&gt;=size，而添加的越界是index&gt;size。添加和删除的时候不要忘了size++和size--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置虚拟头节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置虚拟头节点，交换过程一定要画图！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.删除链表的倒数第N个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，让fast先动n步，定义pre位于slow前一位，再让slow跟着fast一起动，直至fast为空，此时slow为待删除元素，pre为待删除前一位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 02.07. 链表相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以相同的速度（一次一步）沿着自己的路走完，再走一遍对方的路，while节点相等，要么相遇，要么都为空（对方的路都有尽头为null）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142.环形链表II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，fast两步，slow一步。入口前长度为a，环内为b。第一次相遇时，f=2s，f=s+nb，推导出s=nb，再走a步即可到入口，让fast走a步也能到入口，所以当第二次相遇时fast即为入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,9 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -278,6 +343,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,13 +657,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -603,11 +671,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -615,11 +683,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -627,11 +695,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -639,13 +707,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -653,11 +721,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -671,7 +739,7 @@
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -682,7 +750,7 @@
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -693,12 +761,12 @@
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -709,11 +777,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -721,11 +789,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -733,11 +801,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -745,11 +813,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -757,14 +825,106 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8820" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,167 +57,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>56.合并区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧元素和等于右侧元素和（总和-左侧和-中心），计算总和时可以使用accumulate函数，numeric头文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有区间按左端点排序，双指针，L指向索引区间的左侧，R指向右侧。首先将第一个索引区间放到最终区间。若最终区间右端比L小，该索引区间直接放到最终区间。否则代表有重合区间，将最终区间右端更新为它和R的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.旋转图像/矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先水平翻转，再延对角线翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.最长公共前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以数组中第一个字符串为基准进行列扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指51.数组中的逆序对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序，在merge过程中的最后一步，逆序对个数res=mid-l+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315.计算右侧小于当前元素的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序+索引数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>493.翻转对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.搜索插入位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704.二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要看到面试题里给出的数组是有序数组，都可以想一想是否可以使用二分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典二分查找，元素不在区间返回-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典二分查找，元素不在区间返回按顺序插入的位置，即left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. 在数组中查找元素的第一个和最后一个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69. x的平方根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找，左右侧边界。主要是target不在数组内的判定，将笔记内容记熟即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找，防止整型溢出将平方改为除法，0特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707.设计链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203.移除链表元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206.反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置虚拟头节点，注意索引和删除进行越界判断的时候，是index&gt;=size，而添加的越界是index&gt;size。添加和删除的时候不要忘了size++和size--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置虚拟头节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置虚拟头节点，交换过程一定要画图！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.删除链表的倒数第N个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，让fast先动n步，定义pre位于slow前一位，再让slow跟着fast一起动，直至fast为空，此时slow为待删除元素，pre为待删除前一位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 02.07. 链表相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以相同的速度（一次一步）沿着自己的路走完，再走一遍对方的路，while节点相等，要么相遇，要么都为空（对方的路都有尽头为null）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142.环形链表II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，fast两步，slow一步。入口前长度为a，环内为b。第一次相遇时，f=2s，f=s+nb，推导出s=nb，再走a步即可到入口，让fast走a步也能到入口，所以当第二次相遇时fast即为入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑指05.替换空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.合并区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧元素和等于右侧元素和（总和-左侧和-中心），计算总和时可以使用accumulate函数，numeric头文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有区间按左端点排序，双指针，L指向索引区间的左侧，R指向右侧。首先将第一个索引区间放到最终区间。若最终区间右端比L小，该索引区间直接放到最终区间。否则代表有重合区间，将最终区间右端更新为它和R的最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒序索引空格，string.repalce即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48.旋转图像/矩阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先水平翻转，再延对角线翻转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.最长公共前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以数组中第一个字符串为基准进行列扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指51.数组中的逆序对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归并排序，在merge过程中的最后一步，逆序对个数res=mid-l+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>315.计算右侧小于当前元素的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归并排序+索引数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>493.翻转对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35.搜索插入位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704.二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要看到面试题里给出的数组是有序数组，都可以想一想是否可以使用二分法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典二分查找，元素不在区间返回-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典二分查找，元素不在区间返回按顺序插入的位置，即left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34. 在数组中查找元素的第一个和最后一个元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69. x的平方根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分查找，左右侧边界。主要是target不在数组内的判定，将笔记内容记熟即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分查找，防止整型溢出将平方改为除法，0特殊处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707.设计链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203.移除链表元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206.反转链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置虚拟头节点，注意索引和删除进行越界判断的时候，是index&gt;=size，而添加的越界是index&gt;size。添加和删除的时候不要忘了size++和size--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置虚拟头节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24. 两两交换链表中的节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置虚拟头节点，交换过程一定要画图！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.删除链表的倒数第N个节点</t>
+    <t>344.反转字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指Offer 05.替换空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151.翻转字符串里的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指Offer58-II.左旋转字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. 实现 strStr()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>459.重复的子字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,27 +261,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双指针，让fast先动n步，定义pre位于slow前一位，再让slow跟着fast一起动，直至fast为空，此时slow为待删除元素，pre为待删除前一位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试题 02.07. 链表相交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以相同的速度（一次一步）沿着自己的路走完，再走一遍对方的路，while节点相等，要么相遇，要么都为空（对方的路都有尽头为null）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>142.环形链表II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针，fast两步，slow一步。入口前长度为a，环内为b。第一次相遇时，f=2s，f=s+nb，推导出s=nb，再走a步即可到入口，让fast走a步也能到入口，所以当第二次相遇时fast即为入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈希表</t>
+    <t>15. 三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，左指针指向每轮循环的i右侧紧邻，右指针指向最右端。注意i和双指针三个地方的去重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 四数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，两轮for循环，四处去重，其他同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 最接近的三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，同上，去重非必需，用一个变量result记录三数之和，若新的三数之和离target更近，则更新result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈与队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,12 +342,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -342,10 +392,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,252 +735,444 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="6" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A58:A60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9750" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,14 +394,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -727,7 +727,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -739,7 +739,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -751,7 +751,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
@@ -763,19 +763,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -783,37 +783,37 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -825,19 +825,19 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -851,7 +851,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
@@ -863,7 +863,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -875,7 +875,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
@@ -887,7 +887,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
@@ -899,7 +899,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
@@ -911,7 +911,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
@@ -923,58 +923,58 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
     </row>
     <row r="30" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -997,19 +997,19 @@
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1023,7 +1023,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="2" t="s">
         <v>64</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
@@ -1047,19 +1047,19 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1073,7 +1073,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="2" t="s">
         <v>24</v>
       </c>
@@ -1094,19 +1094,19 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="2" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="2" t="s">
         <v>32</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="2" t="s">
         <v>33</v>
       </c>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10680" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,26 @@
   </si>
   <si>
     <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232.用栈实现队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225. 用队列实现栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1047. 删除字符串中的所有相邻重复项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,16 +703,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="85.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
@@ -938,241 +958,259 @@
       <c r="A26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
+      <c r="B30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="D32" s="1"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D49" s="2"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="A50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A60:A64"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A55:A57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14040" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1673,8 +1673,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="14">
+    <row r="9" spans="1:9" hidden="1">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1736,8 +1736,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
-      <c r="A12" s="14">
+    <row r="12" spans="1:9">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1753,7 +1753,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1">
+    <row r="17" spans="1:5">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1">
+    <row r="32" spans="1:5">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -2110,8 +2110,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1">
-      <c r="A34" s="14">
+    <row r="34" spans="1:5">
+      <c r="A34" s="21">
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -2127,7 +2127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1">
+    <row r="35" spans="1:5">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1">
+    <row r="43" spans="1:5" ht="18" hidden="1" customHeight="1">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -2467,8 +2467,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1">
-      <c r="A55" s="14">
+    <row r="55" spans="1:5">
+      <c r="A55" s="21">
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
@@ -2518,7 +2518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1">
+    <row r="58" spans="1:5">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -2535,8 +2535,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1">
-      <c r="A59" s="14">
+    <row r="59" spans="1:5">
+      <c r="A59" s="21">
         <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
@@ -2569,7 +2569,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1">
+    <row r="63" spans="1:5">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1">
+    <row r="66" spans="1:5">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1">
+    <row r="68" spans="1:5">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1">
+    <row r="70" spans="1:5">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1">
+    <row r="76" spans="1:5">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1">
+    <row r="79" spans="1:5">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -3079,8 +3079,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="14">
+    <row r="91" spans="1:5" hidden="1">
+      <c r="A91" s="21">
         <v>90</v>
       </c>
       <c r="B91" s="14" t="s">
@@ -3113,7 +3113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1">
+    <row r="96" spans="1:5">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1">
+    <row r="102" spans="1:5">
       <c r="A102" s="14">
         <v>101</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1">
+    <row r="105" spans="1:5">
       <c r="A105" s="14">
         <v>104</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1">
+    <row r="110" spans="1:5">
       <c r="A110" s="14">
         <v>109</v>
       </c>
@@ -3582,8 +3582,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1">
-      <c r="A122" s="14">
+    <row r="122" spans="1:5">
+      <c r="A122" s="21">
         <v>121</v>
       </c>
       <c r="B122" s="14" t="s">
@@ -3751,7 +3751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1">
+    <row r="133" spans="1:25">
       <c r="A133" s="14">
         <v>132</v>
       </c>
@@ -5963,7 +5963,7 @@
   <autoFilter ref="B1:B157">
     <filterColumn colId="0">
       <filters>
-        <filter val="动态规划"/>
+        <filter val="二叉树"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="15015" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,830 +157,831 @@
     <t>46. 全排列</t>
   </si>
   <si>
+    <t>54. 螺旋矩阵</t>
+  </si>
+  <si>
+    <t>142. 环形链表 II</t>
+  </si>
+  <si>
+    <t>415. 字符串相加</t>
+  </si>
+  <si>
+    <t>92. 反转链表 II</t>
+  </si>
+  <si>
+    <t>300. 最长上升子序列</t>
+  </si>
+  <si>
+    <t>42. 接雨水</t>
+  </si>
+  <si>
+    <t>143. 重排链表</t>
+  </si>
+  <si>
+    <t>124. 二叉树中的最大路径和</t>
+  </si>
+  <si>
+    <t>704. 二分查找</t>
+  </si>
+  <si>
+    <t>94. 二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>199. 二叉树的右视图</t>
+  </si>
+  <si>
+    <t>232. 用栈实现队列</t>
+  </si>
+  <si>
+    <t>19. 删除链表的倒数第N个节点</t>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+  </si>
+  <si>
+    <t>56. 合并区间</t>
+  </si>
+  <si>
+    <t>4. 寻找两个正序数组的中位数</t>
+  </si>
+  <si>
+    <t>69. x 的平方根</t>
+  </si>
+  <si>
+    <t>148. 排序链表</t>
+  </si>
+  <si>
+    <t>72. 编辑距离</t>
+  </si>
+  <si>
+    <t>82. 删除排序链表中的重复元素 II</t>
+  </si>
+  <si>
+    <t>2. 两数相加</t>
+  </si>
+  <si>
+    <t>剑指 Offer 22. 链表中倒数第k个节点</t>
+  </si>
+  <si>
+    <t>8. 字符串转换整数 (atoi)</t>
+  </si>
+  <si>
+    <t>31. 下一个排列</t>
+  </si>
+  <si>
+    <t>22. 括号生成</t>
+  </si>
+  <si>
+    <t>41. 缺失的第一个正数</t>
+  </si>
+  <si>
+    <t>1143. 最长公共子序列</t>
+  </si>
+  <si>
+    <t>93. 复原IP地址</t>
+  </si>
+  <si>
+    <t>151. 翻转字符串里的单词</t>
+  </si>
+  <si>
+    <t>105. 从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>144. 二叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>76. 最小覆盖子串</t>
+  </si>
+  <si>
+    <t>110. 平衡二叉树</t>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>155. 最小栈</t>
+  </si>
+  <si>
+    <t>129. 求根到叶子节点数字之和</t>
+  </si>
+  <si>
+    <t>322. 零钱兑换</t>
+  </si>
+  <si>
+    <t>101. 对称二叉树</t>
+  </si>
+  <si>
+    <t>78. 子集</t>
+  </si>
+  <si>
+    <t>32. 最长有效括号</t>
+  </si>
+  <si>
+    <t>543. 二叉树的直径</t>
+  </si>
+  <si>
+    <t>43. 字符串相乘</t>
+  </si>
+  <si>
+    <t>113. 路径总和 II</t>
+  </si>
+  <si>
+    <t>165. 比较版本号</t>
+  </si>
+  <si>
+    <t>98. 验证二叉搜索树</t>
+  </si>
+  <si>
+    <t>470. 用 Rand7() 实现 Rand10()</t>
+  </si>
+  <si>
+    <t>64. 最小路径和</t>
+  </si>
+  <si>
+    <t>234. 回文链表</t>
+  </si>
+  <si>
+    <t>39. 组合总和</t>
+  </si>
+  <si>
+    <t>169. 多数元素</t>
+  </si>
+  <si>
+    <t>112. 路径总和</t>
+  </si>
+  <si>
+    <t>48. 旋转图像</t>
+  </si>
+  <si>
+    <t>718. 最长重复子数组</t>
+  </si>
+  <si>
+    <t>226. 翻转二叉树</t>
+  </si>
+  <si>
+    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>221. 最大正方形</t>
+  </si>
+  <si>
+    <t>162. 寻找峰值</t>
+  </si>
+  <si>
+    <t>14. 最长公共前缀</t>
+  </si>
+  <si>
+    <t>240. 搜索二维矩阵 II</t>
+  </si>
+  <si>
+    <t>62. 不同路径</t>
+  </si>
+  <si>
+    <t>83. 删除排序链表中的重复元素</t>
+  </si>
+  <si>
+    <t>128. 最长连续序列</t>
+  </si>
+  <si>
+    <t>394. 字符串解码</t>
+  </si>
+  <si>
+    <t>695. 岛屿的最大面积</t>
+  </si>
+  <si>
+    <t>补充题6. 手撕堆排序</t>
+  </si>
+  <si>
+    <t>152. 乘积最大子数组</t>
+  </si>
+  <si>
+    <t>153. 寻找旋转排序数组中的最小值</t>
+  </si>
+  <si>
+    <t>122. 买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>179. 最大数</t>
+  </si>
+  <si>
+    <t>662. 二叉树最大宽度</t>
+  </si>
+  <si>
+    <t>227. 基本计算器 II</t>
+  </si>
+  <si>
+    <t>468. 验证IP地址</t>
+  </si>
+  <si>
+    <t>198. 打家劫舍</t>
+  </si>
+  <si>
+    <t>138. 复制带随机指针的链表</t>
+  </si>
+  <si>
+    <t>136. 只出现一次的数字</t>
+  </si>
+  <si>
+    <t>145. 二叉树的后序遍历</t>
+  </si>
+  <si>
+    <t>剑指 Offer 10- I. 斐波那契数列</t>
+  </si>
+  <si>
+    <t>518. 零钱兑换 II</t>
+  </si>
+  <si>
+    <t>剑指 Offer 51. 数组中的逆序对</t>
+  </si>
+  <si>
+    <t>47. 全排列 II</t>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>59. 螺旋矩阵 II</t>
+  </si>
+  <si>
+    <t>74. 搜索二维矩阵</t>
+  </si>
+  <si>
+    <t>61. 旋转链表</t>
+  </si>
+  <si>
+    <t>7. 整数反转</t>
+  </si>
+  <si>
+    <t>剑指 Offer 40. 最小的k个数</t>
+  </si>
+  <si>
+    <t>230. 二叉搜索树中第K小的元素</t>
+  </si>
+  <si>
+    <t>剑指 Offer 62. 圆圈中最后剩下的数字</t>
+  </si>
+  <si>
+    <t>剑指 Offer 21. 调整数组顺序使奇数位于偶数前面</t>
+  </si>
+  <si>
+    <t>剑指 Offer 42. 连续子数组的最大和</t>
+  </si>
+  <si>
+    <t>123. 买卖股票的最佳时机 III</t>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+  </si>
+  <si>
+    <t>补充题2. 圆环回原点问题</t>
+  </si>
+  <si>
+    <t>440. 字典序的第K小数字</t>
+  </si>
+  <si>
+    <t>75. 颜色分类</t>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+  </si>
+  <si>
+    <t>题目分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21. 合并两个有序链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进制相关</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>724.寻找数组的中心下标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧元素和等于右侧元素和（总和-左侧和-中心），计算总和时可以使用accumulate函数，numeric头文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.搜索插入位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.合并区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有区间按左端点排序，双指针，L指向索引区间的左侧，R指向右侧。首先将第一个索引区间放到最终区间。若最终区间右端比L小，该索引区间直接放到最终区间。否则代表有重合区间，将最终区间右端更新为它和R的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.旋转图像/矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先水平翻转，再延对角线翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>344.反转字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指Offer 05.替换空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151.翻转字符串里的单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指Offer58-II.左旋转字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. 实现 strStr()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>459.重复的子字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.最长公共前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以数组中第一个字符串为基准进行列扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707.设计链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置虚拟头节点，注意索引和删除进行越界判断的时候，是index&gt;=size，而添加的越界是index&gt;size。添加和删除的时候不要忘了size++和size--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203.移除链表元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置虚拟头节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206.反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置虚拟头节点，交换过程一定要画图！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.删除链表的倒数第N个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，让fast先动n步，定义pre位于slow前一位，再让slow跟着fast一起动，直至fast为空，此时slow为待删除元素，pre为待删除前一位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 02.07. 链表相交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以相同的速度（一次一步）沿着自己的路走完，再走一遍对方的路，while节点相等，要么相遇，要么都为空（对方的路都有尽头为null）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142.环形链表II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，fast两步，slow一步。入口前长度为a，环内为b。第一次相遇时，f=2s，f=s+nb，推导出s=nb，再走a步即可到入口，让fast走a步也能到入口，所以当第二次相遇时fast即为入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈与队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232.用栈实现队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225. 用队列实现栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1047. 删除字符串中的所有相邻重复项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，左指针指向每轮循环的i右侧紧邻，右指针指向最右端。注意i和双指针三个地方的去重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 最接近的三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，同上，去重非必需，用一个变量result记录三数之和，若新的三数之和离target更近，则更新result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 四数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，两轮for循环，四处去重，其他同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指51.数组中的逆序对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序，在merge过程中的最后一步，逆序对个数res=mid-l+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315.计算右侧小于当前元素的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序+索引数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>493.翻转对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要看到面试题里给出的数组是有序数组，都可以想一想是否可以使用二分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704.二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典二分查找，元素不在区间返回-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典二分查找，元素不在区间返回按顺序插入的位置，即left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. 在数组中查找元素的第一个和最后一个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找，左右侧边界。主要是target不在数组内的判定，将笔记内容记熟即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69. x的平方根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找，防止整型溢出将平方改为除法，0特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊题型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊题型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊题型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384. 打乱数组</t>
+  </si>
+  <si>
+    <t>450. 删除二叉搜索树中的节点</t>
+  </si>
+  <si>
+    <t>125. 验证回文串</t>
+  </si>
+  <si>
+    <t>328. 奇偶链表</t>
+  </si>
+  <si>
+    <t>225. 用队列实现栈</t>
+  </si>
+  <si>
+    <t>572. 另一个树的子树</t>
+  </si>
+  <si>
+    <t>329. 矩阵中的最长递增路径</t>
+  </si>
+  <si>
+    <t>剑指 Offer 04. 二维数组中的查找</t>
+  </si>
+  <si>
+    <t>剑指 Offer 27. 二叉树的镜像</t>
+  </si>
+  <si>
+    <t>114. 二叉树展开为链表</t>
+  </si>
+  <si>
+    <t>91. 解码方法</t>
+  </si>
+  <si>
+    <t>445. 两数相加 II</t>
+  </si>
+  <si>
+    <t>295. 数据流的中位数</t>
+  </si>
+  <si>
+    <t>189. 轮转数组</t>
+  </si>
+  <si>
+    <t>16. 最接近的三数之和</t>
+  </si>
+  <si>
+    <t>287. 寻找重复数</t>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、归并、优先队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>23. 合并K个排序链表</t>
-  </si>
-  <si>
-    <t>54. 螺旋矩阵</t>
-  </si>
-  <si>
-    <t>142. 环形链表 II</t>
-  </si>
-  <si>
-    <t>415. 字符串相加</t>
-  </si>
-  <si>
-    <t>92. 反转链表 II</t>
-  </si>
-  <si>
-    <t>300. 最长上升子序列</t>
-  </si>
-  <si>
-    <t>42. 接雨水</t>
-  </si>
-  <si>
-    <t>143. 重排链表</t>
-  </si>
-  <si>
-    <t>124. 二叉树中的最大路径和</t>
-  </si>
-  <si>
-    <t>704. 二分查找</t>
-  </si>
-  <si>
-    <t>94. 二叉树的中序遍历</t>
-  </si>
-  <si>
-    <t>199. 二叉树的右视图</t>
-  </si>
-  <si>
-    <t>232. 用栈实现队列</t>
-  </si>
-  <si>
-    <t>19. 删除链表的倒数第N个节点</t>
-  </si>
-  <si>
-    <t>70. 爬楼梯</t>
-  </si>
-  <si>
-    <t>56. 合并区间</t>
-  </si>
-  <si>
-    <t>4. 寻找两个正序数组的中位数</t>
-  </si>
-  <si>
-    <t>69. x 的平方根</t>
-  </si>
-  <si>
-    <t>148. 排序链表</t>
-  </si>
-  <si>
-    <t>72. 编辑距离</t>
-  </si>
-  <si>
-    <t>82. 删除排序链表中的重复元素 II</t>
-  </si>
-  <si>
-    <t>2. 两数相加</t>
-  </si>
-  <si>
-    <t>剑指 Offer 22. 链表中倒数第k个节点</t>
-  </si>
-  <si>
-    <t>8. 字符串转换整数 (atoi)</t>
-  </si>
-  <si>
-    <t>31. 下一个排列</t>
-  </si>
-  <si>
-    <t>22. 括号生成</t>
-  </si>
-  <si>
-    <t>41. 缺失的第一个正数</t>
-  </si>
-  <si>
-    <t>1143. 最长公共子序列</t>
-  </si>
-  <si>
-    <t>93. 复原IP地址</t>
-  </si>
-  <si>
-    <t>151. 翻转字符串里的单词</t>
-  </si>
-  <si>
-    <t>105. 从前序与中序遍历序列构造二叉树</t>
-  </si>
-  <si>
-    <t>144. 二叉树的前序遍历</t>
-  </si>
-  <si>
-    <t>239. 滑动窗口最大值</t>
-  </si>
-  <si>
-    <t>76. 最小覆盖子串</t>
-  </si>
-  <si>
-    <t>110. 平衡二叉树</t>
-  </si>
-  <si>
-    <t>104. 二叉树的最大深度</t>
-  </si>
-  <si>
-    <t>155. 最小栈</t>
-  </si>
-  <si>
-    <t>129. 求根到叶子节点数字之和</t>
-  </si>
-  <si>
-    <t>322. 零钱兑换</t>
-  </si>
-  <si>
-    <t>101. 对称二叉树</t>
-  </si>
-  <si>
-    <t>78. 子集</t>
-  </si>
-  <si>
-    <t>32. 最长有效括号</t>
-  </si>
-  <si>
-    <t>543. 二叉树的直径</t>
-  </si>
-  <si>
-    <t>43. 字符串相乘</t>
-  </si>
-  <si>
-    <t>113. 路径总和 II</t>
-  </si>
-  <si>
-    <t>165. 比较版本号</t>
-  </si>
-  <si>
-    <t>98. 验证二叉搜索树</t>
-  </si>
-  <si>
-    <t>470. 用 Rand7() 实现 Rand10()</t>
-  </si>
-  <si>
-    <t>64. 最小路径和</t>
-  </si>
-  <si>
-    <t>234. 回文链表</t>
-  </si>
-  <si>
-    <t>39. 组合总和</t>
-  </si>
-  <si>
-    <t>169. 多数元素</t>
-  </si>
-  <si>
-    <t>112. 路径总和</t>
-  </si>
-  <si>
-    <t>48. 旋转图像</t>
-  </si>
-  <si>
-    <t>718. 最长重复子数组</t>
-  </si>
-  <si>
-    <t>226. 翻转二叉树</t>
-  </si>
-  <si>
-    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
-  </si>
-  <si>
-    <t>221. 最大正方形</t>
-  </si>
-  <si>
-    <t>162. 寻找峰值</t>
-  </si>
-  <si>
-    <t>14. 最长公共前缀</t>
-  </si>
-  <si>
-    <t>240. 搜索二维矩阵 II</t>
-  </si>
-  <si>
-    <t>62. 不同路径</t>
-  </si>
-  <si>
-    <t>83. 删除排序链表中的重复元素</t>
-  </si>
-  <si>
-    <t>128. 最长连续序列</t>
-  </si>
-  <si>
-    <t>394. 字符串解码</t>
-  </si>
-  <si>
-    <t>695. 岛屿的最大面积</t>
-  </si>
-  <si>
-    <t>补充题6. 手撕堆排序</t>
-  </si>
-  <si>
-    <t>152. 乘积最大子数组</t>
-  </si>
-  <si>
-    <t>153. 寻找旋转排序数组中的最小值</t>
-  </si>
-  <si>
-    <t>122. 买卖股票的最佳时机 II</t>
-  </si>
-  <si>
-    <t>24. 两两交换链表中的节点</t>
-  </si>
-  <si>
-    <t>179. 最大数</t>
-  </si>
-  <si>
-    <t>662. 二叉树最大宽度</t>
-  </si>
-  <si>
-    <t>227. 基本计算器 II</t>
-  </si>
-  <si>
-    <t>468. 验证IP地址</t>
-  </si>
-  <si>
-    <t>198. 打家劫舍</t>
-  </si>
-  <si>
-    <t>138. 复制带随机指针的链表</t>
-  </si>
-  <si>
-    <t>136. 只出现一次的数字</t>
-  </si>
-  <si>
-    <t>145. 二叉树的后序遍历</t>
-  </si>
-  <si>
-    <t>剑指 Offer 10- I. 斐波那契数列</t>
-  </si>
-  <si>
-    <t>518. 零钱兑换 II</t>
-  </si>
-  <si>
-    <t>剑指 Offer 51. 数组中的逆序对</t>
-  </si>
-  <si>
-    <t>47. 全排列 II</t>
-  </si>
-  <si>
-    <t>50. Pow(x, n)</t>
-  </si>
-  <si>
-    <t>59. 螺旋矩阵 II</t>
-  </si>
-  <si>
-    <t>74. 搜索二维矩阵</t>
-  </si>
-  <si>
-    <t>61. 旋转链表</t>
-  </si>
-  <si>
-    <t>7. 整数反转</t>
-  </si>
-  <si>
-    <t>剑指 Offer 40. 最小的k个数</t>
-  </si>
-  <si>
-    <t>230. 二叉搜索树中第K小的元素</t>
-  </si>
-  <si>
-    <t>剑指 Offer 62. 圆圈中最后剩下的数字</t>
-  </si>
-  <si>
-    <t>剑指 Offer 21. 调整数组顺序使奇数位于偶数前面</t>
-  </si>
-  <si>
-    <t>剑指 Offer 42. 连续子数组的最大和</t>
-  </si>
-  <si>
-    <t>123. 买卖股票的最佳时机 III</t>
-  </si>
-  <si>
-    <t>55. 跳跃游戏</t>
-  </si>
-  <si>
-    <t>补充题2. 圆环回原点问题</t>
-  </si>
-  <si>
-    <t>440. 字典序的第K小数字</t>
-  </si>
-  <si>
-    <t>75. 颜色分类</t>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>频次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21. 合并两个有序链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈</t>
-  </si>
-  <si>
-    <t>栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树</t>
-  </si>
-  <si>
-    <t>二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分查找</t>
-  </si>
-  <si>
-    <t>二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动窗口</t>
-  </si>
-  <si>
-    <t>滑动窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回溯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进制相关</t>
-  </si>
-  <si>
-    <t>哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>724.寻找数组的中心下标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧元素和等于右侧元素和（总和-左侧和-中心），计算总和时可以使用accumulate函数，numeric头文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35.搜索插入位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.合并区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有区间按左端点排序，双指针，L指向索引区间的左侧，R指向右侧。首先将第一个索引区间放到最终区间。若最终区间右端比L小，该索引区间直接放到最终区间。否则代表有重合区间，将最终区间右端更新为它和R的最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48.旋转图像/矩阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先水平翻转，再延对角线翻转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>344.反转字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指Offer 05.替换空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>151.翻转字符串里的单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指Offer58-II.左旋转字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28. 实现 strStr()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>459.重复的子字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.最长公共前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以数组中第一个字符串为基准进行列扫描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707.设计链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置虚拟头节点，注意索引和删除进行越界判断的时候，是index&gt;=size，而添加的越界是index&gt;size。添加和删除的时候不要忘了size++和size--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203.移除链表元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置虚拟头节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206.反转链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24. 两两交换链表中的节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置虚拟头节点，交换过程一定要画图！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.删除链表的倒数第N个节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针，让fast先动n步，定义pre位于slow前一位，再让slow跟着fast一起动，直至fast为空，此时slow为待删除元素，pre为待删除前一位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试题 02.07. 链表相交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以相同的速度（一次一步）沿着自己的路走完，再走一遍对方的路，while节点相等，要么相遇，要么都为空（对方的路都有尽头为null）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>142.环形链表II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针，fast两步，slow一步。入口前长度为a，环内为b。第一次相遇时，f=2s，f=s+nb，推导出s=nb，再走a步即可到入口，让fast走a步也能到入口，所以当第二次相遇时fast即为入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈与队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>232.用栈实现队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>225. 用队列实现栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20. 有效的括号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1047. 删除字符串中的所有相邻重复项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>239. 滑动窗口最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15. 三数之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针，左指针指向每轮循环的i右侧紧邻，右指针指向最右端。注意i和双指针三个地方的去重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16. 最接近的三数之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针，同上，去重非必需，用一个变量result记录三数之和，若新的三数之和离target更近，则更新result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18. 四数之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针，两轮for循环，四处去重，其他同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指51.数组中的逆序对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归并排序，在merge过程中的最后一步，逆序对个数res=mid-l+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>315.计算右侧小于当前元素的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归并排序+索引数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>493.翻转对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要看到面试题里给出的数组是有序数组，都可以想一想是否可以使用二分法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704.二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典二分查找，元素不在区间返回-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典二分查找，元素不在区间返回按顺序插入的位置，即left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34. 在数组中查找元素的第一个和最后一个元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分查找，左右侧边界。主要是target不在数组内的判定，将笔记内容记熟即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69. x的平方根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分查找，防止整型溢出将平方改为除法，0特殊处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊题型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊题型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊题型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>384. 打乱数组</t>
-  </si>
-  <si>
-    <t>450. 删除二叉搜索树中的节点</t>
-  </si>
-  <si>
-    <t>125. 验证回文串</t>
-  </si>
-  <si>
-    <t>328. 奇偶链表</t>
-  </si>
-  <si>
-    <t>225. 用队列实现栈</t>
-  </si>
-  <si>
-    <t>572. 另一个树的子树</t>
-  </si>
-  <si>
-    <t>329. 矩阵中的最长递增路径</t>
-  </si>
-  <si>
-    <t>剑指 Offer 04. 二维数组中的查找</t>
-  </si>
-  <si>
-    <t>剑指 Offer 27. 二叉树的镜像</t>
-  </si>
-  <si>
-    <t>114. 二叉树展开为链表</t>
-  </si>
-  <si>
-    <t>91. 解码方法</t>
-  </si>
-  <si>
-    <t>445. 两数相加 II</t>
-  </si>
-  <si>
-    <t>295. 数据流的中位数</t>
-  </si>
-  <si>
-    <t>189. 轮转数组</t>
-  </si>
-  <si>
-    <t>16. 最接近的三数之和</t>
-  </si>
-  <si>
-    <t>287. 寻找重复数</t>
-  </si>
-  <si>
-    <t>队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表、归并、优先队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1463,14 +1464,14 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="2" width="21.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="43.375" style="10" customWidth="1"/>
     <col min="4" max="4" width="34.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="79" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
@@ -1478,22 +1479,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H1" s="22"/>
     </row>
@@ -1502,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>23</v>
@@ -1514,13 +1515,13 @@
         <v>499</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1">
@@ -1528,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>24</v>
@@ -1540,13 +1541,13 @@
         <v>467</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1">
@@ -1554,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>25</v>
@@ -1566,13 +1567,13 @@
         <v>410</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1">
@@ -1580,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>26</v>
@@ -1592,18 +1593,18 @@
         <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1">
-      <c r="A6" s="14">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>27</v>
@@ -1615,13 +1616,13 @@
         <v>257</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1">
@@ -1629,7 +1630,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>28</v>
@@ -1641,13 +1642,13 @@
         <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1">
@@ -1655,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>29</v>
@@ -1667,18 +1668,18 @@
         <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>30</v>
@@ -1690,21 +1691,21 @@
         <v>214</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:9" hidden="1">
-      <c r="A10" s="14">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>5</v>
@@ -1713,7 +1714,7 @@
         <v>205</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1">
@@ -1721,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>31</v>
@@ -1733,15 +1734,15 @@
         <v>197</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>32</v>
@@ -1753,12 +1754,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>33</v>
@@ -1775,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>34</v>
@@ -1792,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>35</v>
@@ -1809,7 +1810,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>36</v>
@@ -1821,12 +1822,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>37</v>
@@ -1843,7 +1844,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>38</v>
@@ -1855,12 +1856,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>39</v>
@@ -1872,12 +1873,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1">
+    <row r="20" spans="1:5">
       <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>40</v>
@@ -1894,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>41</v>
@@ -1911,7 +1912,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>42</v>
@@ -1928,7 +1929,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>43</v>
@@ -1941,14 +1942,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1">
-      <c r="A24" s="14">
+      <c r="A24" s="21">
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>1</v>
@@ -1962,10 +1963,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>3</v>
@@ -1979,10 +1980,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>3</v>
@@ -1996,10 +1997,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>5</v>
@@ -2009,14 +2010,14 @@
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1">
-      <c r="A28" s="14">
+      <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>3</v>
@@ -2025,15 +2026,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1">
+    <row r="29" spans="1:5">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>3</v>
@@ -2042,15 +2043,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1">
+    <row r="30" spans="1:5">
       <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>1</v>
@@ -2064,10 +2065,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>3</v>
@@ -2076,15 +2077,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>1</v>
@@ -2098,10 +2099,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>5</v>
@@ -2110,15 +2111,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="21">
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>5</v>
@@ -2127,15 +2128,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>3</v>
@@ -2149,10 +2150,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>5</v>
@@ -2162,14 +2163,14 @@
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1">
-      <c r="A37" s="14">
+      <c r="A37" s="21">
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>3</v>
@@ -2178,15 +2179,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1">
+    <row r="38" spans="1:5">
       <c r="A38" s="21">
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>5</v>
@@ -2200,10 +2201,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>3</v>
@@ -2217,10 +2218,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>1</v>
@@ -2234,10 +2235,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>5</v>
@@ -2251,10 +2252,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>3</v>
@@ -2263,15 +2264,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" hidden="1" customHeight="1">
+    <row r="43" spans="1:5" ht="18" customHeight="1">
       <c r="A43" s="14">
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>1</v>
@@ -2285,10 +2286,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>3</v>
@@ -2302,10 +2303,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>3</v>
@@ -2319,10 +2320,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>5</v>
@@ -2336,10 +2337,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>3</v>
@@ -2353,10 +2354,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>3</v>
@@ -2370,10 +2371,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>3</v>
@@ -2387,10 +2388,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>1</v>
@@ -2399,15 +2400,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="21">
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>3</v>
@@ -2416,15 +2417,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1">
+    <row r="52" spans="1:5">
       <c r="A52" s="14">
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>3</v>
@@ -2438,10 +2439,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>3</v>
@@ -2450,15 +2451,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="14">
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>3</v>
@@ -2467,15 +2468,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" s="21">
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>5</v>
@@ -2489,10 +2490,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>1</v>
@@ -2506,10 +2507,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>1</v>
@@ -2518,15 +2519,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" s="14">
         <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>5</v>
@@ -2535,15 +2536,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="21">
         <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>5</v>
@@ -2557,10 +2558,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>5</v>
@@ -2569,15 +2570,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" s="14">
         <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>3</v>
@@ -2586,15 +2587,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="14">
         <v>61</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>3</v>
@@ -2603,15 +2604,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="14">
+    <row r="63" spans="1:5" hidden="1">
+      <c r="A63" s="21">
         <v>62</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>5</v>
@@ -2625,10 +2626,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>3</v>
@@ -2637,15 +2638,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="14">
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>1</v>
@@ -2654,15 +2655,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" s="14">
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>5</v>
@@ -2676,10 +2677,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>3</v>
@@ -2688,15 +2689,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" s="14">
         <v>67</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>3</v>
@@ -2710,10 +2711,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>3</v>
@@ -2722,15 +2723,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" s="14">
         <v>69</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>3</v>
@@ -2744,10 +2745,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>3</v>
@@ -2756,15 +2757,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1">
+    <row r="72" spans="1:5">
       <c r="A72" s="14">
         <v>71</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>3</v>
@@ -2778,10 +2779,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>5</v>
@@ -2795,10 +2796,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>3</v>
@@ -2812,10 +2813,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>5</v>
@@ -2824,15 +2825,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" s="14">
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>5</v>
@@ -2846,10 +2847,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>3</v>
@@ -2858,15 +2859,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1">
+    <row r="78" spans="1:5">
       <c r="A78" s="14">
         <v>77</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>3</v>
@@ -2875,15 +2876,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" s="14">
         <v>78</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>5</v>
@@ -2897,10 +2898,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>3</v>
@@ -2909,15 +2910,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1">
+    <row r="81" spans="1:5">
       <c r="A81" s="14">
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>3</v>
@@ -2931,10 +2932,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>3</v>
@@ -2948,10 +2949,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>5</v>
@@ -2965,10 +2966,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>3</v>
@@ -2977,15 +2978,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1">
+    <row r="85" spans="1:5">
       <c r="A85" s="14">
         <v>84</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>3</v>
@@ -2999,10 +3000,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>5</v>
@@ -3016,10 +3017,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>3</v>
@@ -3033,10 +3034,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>3</v>
@@ -3050,10 +3051,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>3</v>
@@ -3067,10 +3068,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>3</v>
@@ -3079,15 +3080,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1">
+    <row r="91" spans="1:5">
       <c r="A91" s="21">
         <v>90</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>3</v>
@@ -3101,10 +3102,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>3</v>
@@ -3113,15 +3114,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1">
+    <row r="93" spans="1:5">
       <c r="A93" s="14">
         <v>92</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>5</v>
@@ -3131,14 +3132,14 @@
       </c>
     </row>
     <row r="94" spans="1:5" hidden="1">
-      <c r="A94" s="14">
+      <c r="A94" s="21">
         <v>93</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>3</v>
@@ -3152,10 +3153,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>3</v>
@@ -3164,15 +3165,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="14">
+    <row r="96" spans="1:5" hidden="1">
+      <c r="A96" s="21">
         <v>95</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>3</v>
@@ -3186,10 +3187,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>3</v>
@@ -3203,10 +3204,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>3</v>
@@ -3215,15 +3216,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1">
+    <row r="99" spans="1:5">
       <c r="A99" s="21">
         <v>98</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>3</v>
@@ -3237,10 +3238,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>3</v>
@@ -3254,10 +3255,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>5</v>
@@ -3266,12 +3267,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="14">
         <v>101</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>0</v>
@@ -3313,12 +3314,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="14">
         <v>104</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>6</v>
@@ -3335,7 +3336,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>7</v>
@@ -3352,7 +3353,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>8</v>
@@ -3394,12 +3395,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="14">
         <v>109</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>11</v>
@@ -3416,7 +3417,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>12</v>
@@ -3538,7 +3539,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>20</v>
@@ -3555,7 +3556,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>21</v>
@@ -3582,15 +3583,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" s="21">
         <v>121</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>3</v>
@@ -3605,7 +3606,7 @@
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>5</v>
@@ -3620,7 +3621,7 @@
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>3</v>
@@ -3635,7 +3636,7 @@
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>1</v>
@@ -3650,7 +3651,7 @@
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>3</v>
@@ -3665,7 +3666,7 @@
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>3</v>
@@ -3680,7 +3681,7 @@
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D128" s="14" t="s">
         <v>3</v>
@@ -3695,7 +3696,7 @@
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>3</v>
@@ -3709,13 +3710,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E130" s="14">
         <v>30</v>
@@ -3727,7 +3728,7 @@
       </c>
       <c r="B131" s="14"/>
       <c r="C131" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>5</v>
@@ -3742,7 +3743,7 @@
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>5</v>
@@ -3751,15 +3752,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" hidden="1">
       <c r="A133" s="14">
         <v>132</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>3</v>
@@ -3774,7 +3775,7 @@
       </c>
       <c r="B134" s="14"/>
       <c r="C134" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>5</v>
@@ -3789,7 +3790,7 @@
       </c>
       <c r="B135" s="14"/>
       <c r="C135" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>5</v>
@@ -3804,7 +3805,7 @@
       </c>
       <c r="B136" s="14"/>
       <c r="C136" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>5</v>
@@ -3819,7 +3820,7 @@
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>1</v>
@@ -3834,7 +3835,7 @@
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>3</v>
@@ -3849,7 +3850,7 @@
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>3</v>
@@ -3869,7 +3870,7 @@
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>1</v>
@@ -3889,7 +3890,7 @@
       </c>
       <c r="B141" s="14"/>
       <c r="C141" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>3</v>
@@ -3909,7 +3910,7 @@
       </c>
       <c r="B142" s="14"/>
       <c r="C142" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="16">
@@ -3927,7 +3928,7 @@
       </c>
       <c r="B143" s="14"/>
       <c r="C143" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="16">
@@ -3960,7 +3961,7 @@
       </c>
       <c r="B144" s="14"/>
       <c r="C144" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="16">
@@ -3993,7 +3994,7 @@
       </c>
       <c r="B145" s="14"/>
       <c r="C145" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="16">
@@ -4025,10 +4026,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="16">
@@ -4061,7 +4062,7 @@
       </c>
       <c r="B147" s="14"/>
       <c r="C147" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="16">
@@ -4094,7 +4095,7 @@
       </c>
       <c r="B148" s="14"/>
       <c r="C148" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="16">
@@ -4127,7 +4128,7 @@
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="16">
@@ -4160,7 +4161,7 @@
       </c>
       <c r="B150" s="14"/>
       <c r="C150" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D150" s="14"/>
       <c r="E150" s="16">
@@ -4193,7 +4194,7 @@
       </c>
       <c r="B151" s="14"/>
       <c r="C151" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="16">
@@ -4226,7 +4227,7 @@
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="16">
@@ -4259,7 +4260,7 @@
       </c>
       <c r="B153" s="14"/>
       <c r="C153" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="16">
@@ -4292,7 +4293,7 @@
       </c>
       <c r="B154" s="14"/>
       <c r="C154" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="16">
@@ -4325,7 +4326,7 @@
       </c>
       <c r="B155" s="14"/>
       <c r="C155" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="16">
@@ -4358,7 +4359,7 @@
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="16">
@@ -4391,7 +4392,7 @@
       </c>
       <c r="B157" s="14"/>
       <c r="C157" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="16">
@@ -5963,7 +5964,7 @@
   <autoFilter ref="B1:B157">
     <filterColumn colId="0">
       <filters>
-        <filter val="二叉树"/>
+        <filter val="动态规划"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6013,66 +6014,66 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5">
       <c r="A7" s="23"/>
       <c r="B7" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="23"/>
       <c r="B8" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6089,52 +6090,52 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="23"/>
       <c r="B12" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="23"/>
       <c r="B13" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="23"/>
       <c r="B14" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="23"/>
       <c r="B15" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="23"/>
       <c r="B16" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="23"/>
       <c r="B17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6151,88 +6152,88 @@
     </row>
     <row r="20" spans="1:4" ht="28.5">
       <c r="A20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="23"/>
       <c r="B21" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="23"/>
       <c r="B22" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="23"/>
       <c r="B23" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="23"/>
       <c r="B24" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="23"/>
       <c r="B25" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.5">
       <c r="A26" s="23"/>
       <c r="B26" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6249,49 +6250,49 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="23"/>
       <c r="B30" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="23"/>
       <c r="B31" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.5">
       <c r="A32" s="23"/>
       <c r="B32" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="23"/>
       <c r="B33" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6308,7 +6309,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6325,40 +6326,40 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="23"/>
       <c r="B54" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="23"/>
       <c r="B55" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6375,37 +6376,37 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="23"/>
       <c r="B59" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="23"/>
       <c r="B60" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6422,61 +6423,61 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="23"/>
       <c r="B64" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="23"/>
       <c r="B65" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.5">
       <c r="A66" s="23"/>
       <c r="B66" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="23"/>
       <c r="B67" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
